--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dionte.biddings/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grandeur/OC_Projects_Folder/Web_Optimization_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870A20FC-F59D-D841-BD34-A7E46C566649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24846860-57CF-9F48-8451-F96EDA0273E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34400" yWindow="-3760" windowWidth="34400" windowHeight="26780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,9 +208,6 @@
     <t>Pre-loading the largest Contentful paint</t>
   </si>
   <si>
-    <t>http://127.0.0.1:5500/index.html</t>
-  </si>
-  <si>
     <t>https://developer.chrome.com/docs/lighthouse/performance/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>add the preload link within the header of your page eg.) &lt;link rel="preload" fetchpriority="high" as="image" href="img/atlanta%20made%20sign.webp" type="image/webp"&gt;</t>
+  </si>
+  <si>
+    <t>https://developer.chrome.com/docs/lighthouse/performance/lighthouse-largest-contentful-paint/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -800,19 +800,19 @@
         <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -823,16 +823,16 @@
         <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
